--- a/SubRES_TMPL/SubRES_SUP_Hydrogen.xlsx
+++ b/SubRES_TMPL/SubRES_SUP_Hydrogen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\times-ireland-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EAEF4B-3F7F-4B29-9391-A8B4B7A31FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29791E42-77AA-4150-ADDC-6322B9F9D166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62F67F8D-DFD4-4ADE-8356-63F780461C4E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="3" xr2:uid="{62F67F8D-DFD4-4ADE-8356-63F780461C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="7" r:id="rId1"/>
@@ -447,9 +447,6 @@
     <t>ACT_COST</t>
   </si>
   <si>
-    <t>~FI_T: EUR10</t>
-  </si>
-  <si>
     <t>HYDROGEN delivery (H2D)</t>
   </si>
   <si>
@@ -540,6 +537,9 @@
   </si>
   <si>
     <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
+    <t>~FI_T: MEUR2010</t>
   </si>
 </sst>
 </file>
@@ -1536,24 +1536,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="1" max="4" width="21.73046875" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" customWidth="1"/>
+    <col min="8" max="10" width="8.1328125" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="24"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1581,7 +1581,7 @@
       <c r="Y1" s="25"/>
       <c r="Z1" s="25"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -1609,7 +1609,7 @@
       <c r="Y2" s="25"/>
       <c r="Z2" s="25"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -1637,7 +1637,7 @@
       <c r="Y3" s="25"/>
       <c r="Z3" s="25"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -1665,7 +1665,7 @@
       <c r="Y4" s="25"/>
       <c r="Z4" s="25"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -1693,7 +1693,7 @@
       <c r="Y5" s="25"/>
       <c r="Z5" s="25"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -1721,7 +1721,7 @@
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -1749,7 +1749,7 @@
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -1777,7 +1777,7 @@
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -1805,7 +1805,7 @@
       <c r="Y9" s="25"/>
       <c r="Z9" s="25"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -1833,7 +1833,7 @@
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -1861,7 +1861,7 @@
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -1889,7 +1889,7 @@
       <c r="Y12" s="25"/>
       <c r="Z12" s="25"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -1917,7 +1917,7 @@
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -1945,7 +1945,7 @@
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -1973,9 +1973,9 @@
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -2003,7 +2003,7 @@
       <c r="Y16" s="25"/>
       <c r="Z16" s="25"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -2031,7 +2031,7 @@
       <c r="Y17" s="25"/>
       <c r="Z17" s="25"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -2059,12 +2059,12 @@
       <c r="Y18" s="25"/>
       <c r="Z18" s="25"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -2091,12 +2091,12 @@
       <c r="Y19" s="25"/>
       <c r="Z19" s="25"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
@@ -2123,12 +2123,12 @@
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
@@ -2155,7 +2155,7 @@
       <c r="Y21" s="25"/>
       <c r="Z21" s="25"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="31"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -2183,12 +2183,12 @@
       <c r="Y22" s="25"/>
       <c r="Z22" s="25"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
@@ -2215,7 +2215,7 @@
       <c r="Y23" s="25"/>
       <c r="Z23" s="25"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="31"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -2243,7 +2243,7 @@
       <c r="Y24" s="25"/>
       <c r="Z24" s="25"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="31"/>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -2271,12 +2271,12 @@
       <c r="Y25" s="25"/>
       <c r="Z25" s="25"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
@@ -2303,7 +2303,7 @@
       <c r="Y26" s="25"/>
       <c r="Z26" s="25"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="31"/>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
@@ -2331,7 +2331,7 @@
       <c r="Y27" s="25"/>
       <c r="Z27" s="25"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="31"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
@@ -2359,9 +2359,9 @@
       <c r="Y28" s="25"/>
       <c r="Z28" s="25"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="35">
         <v>1</v>
@@ -2391,12 +2391,12 @@
       <c r="Y29" s="25"/>
       <c r="Z29" s="25"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="41" t="s">
         <v>132</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>133</v>
       </c>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
@@ -2423,12 +2423,12 @@
       <c r="Y30" s="25"/>
       <c r="Z30" s="25"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="39" t="s">
         <v>134</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>135</v>
       </c>
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
@@ -2455,10 +2455,10 @@
       <c r="Y31" s="25"/>
       <c r="Z31" s="25"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -2485,7 +2485,7 @@
       <c r="Y32" s="25"/>
       <c r="Z32" s="25"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -2513,7 +2513,7 @@
       <c r="Y33" s="25"/>
       <c r="Z33" s="25"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -2541,7 +2541,7 @@
       <c r="Y34" s="25"/>
       <c r="Z34" s="25"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -2569,7 +2569,7 @@
       <c r="Y35" s="25"/>
       <c r="Z35" s="25"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -2597,7 +2597,7 @@
       <c r="Y36" s="25"/>
       <c r="Z36" s="25"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -2625,7 +2625,7 @@
       <c r="Y37" s="25"/>
       <c r="Z37" s="25"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -2653,7 +2653,7 @@
       <c r="Y38" s="25"/>
       <c r="Z38" s="25"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
@@ -2681,7 +2681,7 @@
       <c r="Y39" s="25"/>
       <c r="Z39" s="25"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -2709,7 +2709,7 @@
       <c r="Y40" s="25"/>
       <c r="Z40" s="25"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -2737,7 +2737,7 @@
       <c r="Y41" s="25"/>
       <c r="Z41" s="25"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -2765,7 +2765,7 @@
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -2793,7 +2793,7 @@
       <c r="Y43" s="25"/>
       <c r="Z43" s="25"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -2821,7 +2821,7 @@
       <c r="Y44" s="25"/>
       <c r="Z44" s="25"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -2849,7 +2849,7 @@
       <c r="Y45" s="25"/>
       <c r="Z45" s="25"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -2877,7 +2877,7 @@
       <c r="Y46" s="25"/>
       <c r="Z46" s="25"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -2905,7 +2905,7 @@
       <c r="Y47" s="25"/>
       <c r="Z47" s="25"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -2933,7 +2933,7 @@
       <c r="Y48" s="25"/>
       <c r="Z48" s="25"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -2961,7 +2961,7 @@
       <c r="Y49" s="25"/>
       <c r="Z49" s="25"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -2989,7 +2989,7 @@
       <c r="Y50" s="25"/>
       <c r="Z50" s="25"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -3017,7 +3017,7 @@
       <c r="Y51" s="25"/>
       <c r="Z51" s="25"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -3045,7 +3045,7 @@
       <c r="Y52" s="25"/>
       <c r="Z52" s="25"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -3073,7 +3073,7 @@
       <c r="Y53" s="25"/>
       <c r="Z53" s="25"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
@@ -3101,7 +3101,7 @@
       <c r="Y54" s="25"/>
       <c r="Z54" s="25"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -3129,7 +3129,7 @@
       <c r="Y55" s="25"/>
       <c r="Z55" s="25"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -3157,7 +3157,7 @@
       <c r="Y56" s="25"/>
       <c r="Z56" s="25"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -3185,7 +3185,7 @@
       <c r="Y57" s="25"/>
       <c r="Z57" s="25"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -3213,7 +3213,7 @@
       <c r="Y58" s="25"/>
       <c r="Z58" s="25"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -3241,7 +3241,7 @@
       <c r="Y59" s="25"/>
       <c r="Z59" s="25"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -3269,7 +3269,7 @@
       <c r="Y60" s="25"/>
       <c r="Z60" s="25"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -3297,7 +3297,7 @@
       <c r="Y61" s="25"/>
       <c r="Z61" s="25"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -3325,7 +3325,7 @@
       <c r="Y62" s="25"/>
       <c r="Z62" s="25"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -3353,7 +3353,7 @@
       <c r="Y63" s="25"/>
       <c r="Z63" s="25"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -3381,7 +3381,7 @@
       <c r="Y64" s="25"/>
       <c r="Z64" s="25"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -3409,7 +3409,7 @@
       <c r="Y65" s="25"/>
       <c r="Z65" s="25"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -3437,7 +3437,7 @@
       <c r="Y66" s="25"/>
       <c r="Z66" s="25"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -3465,7 +3465,7 @@
       <c r="Y67" s="25"/>
       <c r="Z67" s="25"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -3493,7 +3493,7 @@
       <c r="Y68" s="25"/>
       <c r="Z68" s="25"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -3521,7 +3521,7 @@
       <c r="Y69" s="25"/>
       <c r="Z69" s="25"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -3549,7 +3549,7 @@
       <c r="Y70" s="25"/>
       <c r="Z70" s="25"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -3577,7 +3577,7 @@
       <c r="Y71" s="25"/>
       <c r="Z71" s="25"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -3605,7 +3605,7 @@
       <c r="Y72" s="25"/>
       <c r="Z72" s="25"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -3633,7 +3633,7 @@
       <c r="Y73" s="25"/>
       <c r="Z73" s="25"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
@@ -3661,7 +3661,7 @@
       <c r="Y74" s="25"/>
       <c r="Z74" s="25"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
@@ -3689,7 +3689,7 @@
       <c r="Y75" s="25"/>
       <c r="Z75" s="25"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -3717,7 +3717,7 @@
       <c r="Y76" s="25"/>
       <c r="Z76" s="25"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
@@ -3745,7 +3745,7 @@
       <c r="Y77" s="25"/>
       <c r="Z77" s="25"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -3773,7 +3773,7 @@
       <c r="Y78" s="25"/>
       <c r="Z78" s="25"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -3801,7 +3801,7 @@
       <c r="Y79" s="25"/>
       <c r="Z79" s="25"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
@@ -3829,7 +3829,7 @@
       <c r="Y80" s="25"/>
       <c r="Z80" s="25"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
@@ -3857,7 +3857,7 @@
       <c r="Y81" s="25"/>
       <c r="Z81" s="25"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
@@ -3885,7 +3885,7 @@
       <c r="Y82" s="25"/>
       <c r="Z82" s="25"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -3913,7 +3913,7 @@
       <c r="Y83" s="25"/>
       <c r="Z83" s="25"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -3941,7 +3941,7 @@
       <c r="Y84" s="25"/>
       <c r="Z84" s="25"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
@@ -3969,7 +3969,7 @@
       <c r="Y85" s="25"/>
       <c r="Z85" s="25"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -3997,7 +3997,7 @@
       <c r="Y86" s="25"/>
       <c r="Z86" s="25"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
@@ -4025,7 +4025,7 @@
       <c r="Y87" s="25"/>
       <c r="Z87" s="25"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -4053,7 +4053,7 @@
       <c r="Y88" s="25"/>
       <c r="Z88" s="25"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
@@ -4081,7 +4081,7 @@
       <c r="Y89" s="25"/>
       <c r="Z89" s="25"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -4109,7 +4109,7 @@
       <c r="Y90" s="25"/>
       <c r="Z90" s="25"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
@@ -4137,7 +4137,7 @@
       <c r="Y91" s="25"/>
       <c r="Z91" s="25"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
@@ -4165,7 +4165,7 @@
       <c r="Y92" s="25"/>
       <c r="Z92" s="25"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -4193,7 +4193,7 @@
       <c r="Y93" s="25"/>
       <c r="Z93" s="25"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -4221,7 +4221,7 @@
       <c r="Y94" s="25"/>
       <c r="Z94" s="25"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -4249,7 +4249,7 @@
       <c r="Y95" s="25"/>
       <c r="Z95" s="25"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
@@ -4277,7 +4277,7 @@
       <c r="Y96" s="25"/>
       <c r="Z96" s="25"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
@@ -4305,7 +4305,7 @@
       <c r="Y97" s="25"/>
       <c r="Z97" s="25"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -4333,7 +4333,7 @@
       <c r="Y98" s="25"/>
       <c r="Z98" s="25"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
@@ -4392,38 +4392,38 @@
       <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
-    <col min="10" max="19" width="11.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1328125" style="1" customWidth="1"/>
+    <col min="10" max="19" width="11.1328125" style="1" customWidth="1"/>
     <col min="20" max="21" width="12" style="1" customWidth="1"/>
-    <col min="22" max="23" width="8.85546875" style="1"/>
-    <col min="24" max="24" width="13.7109375" style="1" customWidth="1"/>
+    <col min="22" max="23" width="8.86328125" style="1"/>
+    <col min="24" max="24" width="13.73046875" style="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.85546875" style="1"/>
+    <col min="26" max="26" width="68.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="D4" s="9" t="s">
@@ -4440,7 +4440,7 @@
       <c r="AD4" s="8"/>
       <c r="AE4" s="7"/>
     </row>
-    <row r="5" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A5" s="21" t="s">
         <v>26</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" ht="79.150000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="19" t="s">
         <v>19</v>
       </c>
@@ -4588,7 +4588,7 @@
       <c r="AD6" s="18"/>
       <c r="AE6" s="18"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
         <v>55</v>
       </c>
@@ -4637,7 +4637,7 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="16"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>52</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="AD8" s="13"/>
       <c r="AE8" s="13"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -4761,12 +4761,12 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:31" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>46</v>
       </c>
@@ -4796,7 +4796,7 @@
       <c r="Y12"/>
       <c r="Z12"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>45</v>
       </c>
@@ -4826,7 +4826,7 @@
       <c r="Y13"/>
       <c r="Z13"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A14" s="10"/>
       <c r="C14"/>
       <c r="D14" s="9" t="s">
@@ -4856,7 +4856,7 @@
       <c r="AD14" s="8"/>
       <c r="AE14" s="7"/>
     </row>
-    <row r="15" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -4978,7 +4978,7 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -5058,32 +5058,32 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.85546875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="15" width="16.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.265625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.86328125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.86328125" style="1"/>
+    <col min="9" max="15" width="16.73046875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.86328125" style="1"/>
+    <col min="17" max="17" width="11.73046875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="1"/>
+    <col min="20" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="E3" s="9" t="s">
         <v>44</v>
       </c>
@@ -5097,7 +5097,7 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>26</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="79.150000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
@@ -5223,7 +5223,7 @@
       <c r="W5" s="18"/>
       <c r="X5" s="18"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>55</v>
       </c>
@@ -5266,7 +5266,7 @@
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>82</v>
       </c>
@@ -5296,7 +5296,7 @@
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>78</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>78</v>
       </c>
@@ -5395,36 +5395,36 @@
   </sheetPr>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" style="1" customWidth="1"/>
-    <col min="5" max="17" width="14.28515625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="8.85546875" style="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="56.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="57.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.3984375" style="1" customWidth="1"/>
+    <col min="5" max="17" width="14.265625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="8.86328125" style="1"/>
+    <col min="20" max="20" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="56.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="D3" s="9" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>43</v>
@@ -5436,7 +5436,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>26</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="92.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
@@ -5576,7 +5576,7 @@
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>55</v>
       </c>
@@ -5625,7 +5625,7 @@
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>103</v>
       </c>
@@ -5657,7 +5657,7 @@
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>100</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -5876,36 +5876,36 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.42578125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="8.85546875" style="1"/>
-    <col min="22" max="22" width="2.7109375" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.3984375" style="1" customWidth="1"/>
+    <col min="5" max="8" width="8.86328125" style="1"/>
+    <col min="9" max="9" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.73046875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.3984375" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="8.86328125" style="1"/>
+    <col min="22" max="22" width="2.73046875" customWidth="1"/>
+    <col min="23" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="D3" s="9" t="s">
         <v>44</v>
       </c>
@@ -5919,7 +5919,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>26</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>39</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>33</v>
@@ -5978,7 +5978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
@@ -5999,16 +5999,16 @@
         <v>62</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M5" s="18" t="s">
         <v>10</v>
@@ -6021,7 +6021,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
     </row>
-    <row r="6" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>55</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>83</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>10</v>
@@ -6054,12 +6054,12 @@
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>48</v>
@@ -6089,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N7" s="1" t="str">
         <f>A7</f>
@@ -6109,15 +6109,15 @@
         <v>2</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -6147,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N8" s="1" t="str">
         <f>A8</f>
@@ -6167,7 +6167,7 @@
         <v>2</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRES_SUP_Hydrogen.xlsx
+++ b/SubRES_TMPL/SubRES_SUP_Hydrogen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\times-ireland-model\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29791E42-77AA-4150-ADDC-6322B9F9D166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64455B47-3B87-4E8D-9C48-58217D2EB668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="3" xr2:uid="{62F67F8D-DFD4-4ADE-8356-63F780461C4E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{62F67F8D-DFD4-4ADE-8356-63F780461C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="7" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="144">
   <si>
     <t>Document type:</t>
   </si>
@@ -540,6 +540,12 @@
   </si>
   <si>
     <t>~FI_T: MEUR2010</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Bakytzhan Suleimenov (UCC, bsuleimenov@ucc.ie)</t>
   </si>
 </sst>
 </file>
@@ -1237,9 +1243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1277,7 +1283,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1383,7 +1389,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1525,7 +1531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1537,23 +1543,23 @@
   <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="21.73046875" customWidth="1"/>
-    <col min="5" max="6" width="14.1328125" customWidth="1"/>
-    <col min="7" max="7" width="12.1328125" customWidth="1"/>
-    <col min="8" max="10" width="8.1328125" customWidth="1"/>
-    <col min="11" max="11" width="9.73046875" customWidth="1"/>
-    <col min="12" max="12" width="8.1328125" customWidth="1"/>
+    <col min="1" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="8" max="10" width="8.08984375" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+    <col min="12" max="12" width="8.08984375" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.3984375" customWidth="1"/>
-    <col min="15" max="15" width="13.3984375" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="24"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1581,7 +1587,7 @@
       <c r="Y1" s="25"/>
       <c r="Z1" s="25"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -1609,7 +1615,7 @@
       <c r="Y2" s="25"/>
       <c r="Z2" s="25"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -1637,7 +1643,7 @@
       <c r="Y3" s="25"/>
       <c r="Z3" s="25"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -1665,7 +1671,7 @@
       <c r="Y4" s="25"/>
       <c r="Z4" s="25"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -1693,7 +1699,7 @@
       <c r="Y5" s="25"/>
       <c r="Z5" s="25"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -1721,7 +1727,7 @@
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -1749,7 +1755,7 @@
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -1777,7 +1783,7 @@
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -1805,7 +1811,7 @@
       <c r="Y9" s="25"/>
       <c r="Z9" s="25"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -1833,7 +1839,7 @@
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -1861,7 +1867,7 @@
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -1889,7 +1895,7 @@
       <c r="Y12" s="25"/>
       <c r="Z12" s="25"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -1917,7 +1923,7 @@
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -1945,7 +1951,7 @@
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -1973,7 +1979,7 @@
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
         <v>125</v>
       </c>
@@ -2003,7 +2009,7 @@
       <c r="Y16" s="25"/>
       <c r="Z16" s="25"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -2031,7 +2037,7 @@
       <c r="Y17" s="25"/>
       <c r="Z17" s="25"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -2059,7 +2065,7 @@
       <c r="Y18" s="25"/>
       <c r="Z18" s="25"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +2097,7 @@
       <c r="Y19" s="25"/>
       <c r="Z19" s="25"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
         <v>126</v>
       </c>
@@ -2123,7 +2129,7 @@
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
         <v>127</v>
       </c>
@@ -2155,7 +2161,7 @@
       <c r="Y21" s="25"/>
       <c r="Z21" s="25"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="31"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -2183,7 +2189,7 @@
       <c r="Y22" s="25"/>
       <c r="Z22" s="25"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
         <v>128</v>
       </c>
@@ -2215,9 +2221,11 @@
       <c r="Y23" s="25"/>
       <c r="Z23" s="25"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="31"/>
-      <c r="B24" s="34"/>
+      <c r="B24" s="34" t="s">
+        <v>140</v>
+      </c>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
       <c r="E24" s="25"/>
@@ -2243,7 +2251,7 @@
       <c r="Y24" s="25"/>
       <c r="Z24" s="25"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="31"/>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -2271,12 +2279,12 @@
       <c r="Y25" s="25"/>
       <c r="Z25" s="25"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>129</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
@@ -2303,7 +2311,7 @@
       <c r="Y26" s="25"/>
       <c r="Z26" s="25"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="31"/>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
@@ -2331,7 +2339,7 @@
       <c r="Y27" s="25"/>
       <c r="Z27" s="25"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
@@ -2359,7 +2367,7 @@
       <c r="Y28" s="25"/>
       <c r="Z28" s="25"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
         <v>130</v>
       </c>
@@ -2391,7 +2399,7 @@
       <c r="Y29" s="25"/>
       <c r="Z29" s="25"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>131</v>
       </c>
@@ -2423,7 +2431,7 @@
       <c r="Y30" s="25"/>
       <c r="Z30" s="25"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
         <v>133</v>
       </c>
@@ -2455,7 +2463,7 @@
       <c r="Y31" s="25"/>
       <c r="Z31" s="25"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
         <v>135</v>
@@ -2485,7 +2493,7 @@
       <c r="Y32" s="25"/>
       <c r="Z32" s="25"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -2513,7 +2521,7 @@
       <c r="Y33" s="25"/>
       <c r="Z33" s="25"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -2541,7 +2549,7 @@
       <c r="Y34" s="25"/>
       <c r="Z34" s="25"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -2569,7 +2577,7 @@
       <c r="Y35" s="25"/>
       <c r="Z35" s="25"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -2597,7 +2605,7 @@
       <c r="Y36" s="25"/>
       <c r="Z36" s="25"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -2625,7 +2633,7 @@
       <c r="Y37" s="25"/>
       <c r="Z37" s="25"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -2653,7 +2661,7 @@
       <c r="Y38" s="25"/>
       <c r="Z38" s="25"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
@@ -2681,7 +2689,7 @@
       <c r="Y39" s="25"/>
       <c r="Z39" s="25"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -2709,7 +2717,7 @@
       <c r="Y40" s="25"/>
       <c r="Z40" s="25"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -2737,7 +2745,7 @@
       <c r="Y41" s="25"/>
       <c r="Z41" s="25"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -2765,7 +2773,7 @@
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -2793,7 +2801,7 @@
       <c r="Y43" s="25"/>
       <c r="Z43" s="25"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -2821,7 +2829,7 @@
       <c r="Y44" s="25"/>
       <c r="Z44" s="25"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -2849,7 +2857,7 @@
       <c r="Y45" s="25"/>
       <c r="Z45" s="25"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -2877,7 +2885,7 @@
       <c r="Y46" s="25"/>
       <c r="Z46" s="25"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -2905,7 +2913,7 @@
       <c r="Y47" s="25"/>
       <c r="Z47" s="25"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -2933,7 +2941,7 @@
       <c r="Y48" s="25"/>
       <c r="Z48" s="25"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -2961,7 +2969,7 @@
       <c r="Y49" s="25"/>
       <c r="Z49" s="25"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -2989,7 +2997,7 @@
       <c r="Y50" s="25"/>
       <c r="Z50" s="25"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -3017,7 +3025,7 @@
       <c r="Y51" s="25"/>
       <c r="Z51" s="25"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -3045,7 +3053,7 @@
       <c r="Y52" s="25"/>
       <c r="Z52" s="25"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -3073,7 +3081,7 @@
       <c r="Y53" s="25"/>
       <c r="Z53" s="25"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
@@ -3101,7 +3109,7 @@
       <c r="Y54" s="25"/>
       <c r="Z54" s="25"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -3129,7 +3137,7 @@
       <c r="Y55" s="25"/>
       <c r="Z55" s="25"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -3157,7 +3165,7 @@
       <c r="Y56" s="25"/>
       <c r="Z56" s="25"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -3185,7 +3193,7 @@
       <c r="Y57" s="25"/>
       <c r="Z57" s="25"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -3213,7 +3221,7 @@
       <c r="Y58" s="25"/>
       <c r="Z58" s="25"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -3241,7 +3249,7 @@
       <c r="Y59" s="25"/>
       <c r="Z59" s="25"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -3269,7 +3277,7 @@
       <c r="Y60" s="25"/>
       <c r="Z60" s="25"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -3297,7 +3305,7 @@
       <c r="Y61" s="25"/>
       <c r="Z61" s="25"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -3325,7 +3333,7 @@
       <c r="Y62" s="25"/>
       <c r="Z62" s="25"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -3353,7 +3361,7 @@
       <c r="Y63" s="25"/>
       <c r="Z63" s="25"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -3381,7 +3389,7 @@
       <c r="Y64" s="25"/>
       <c r="Z64" s="25"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -3409,7 +3417,7 @@
       <c r="Y65" s="25"/>
       <c r="Z65" s="25"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -3437,7 +3445,7 @@
       <c r="Y66" s="25"/>
       <c r="Z66" s="25"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -3465,7 +3473,7 @@
       <c r="Y67" s="25"/>
       <c r="Z67" s="25"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -3493,7 +3501,7 @@
       <c r="Y68" s="25"/>
       <c r="Z68" s="25"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -3521,7 +3529,7 @@
       <c r="Y69" s="25"/>
       <c r="Z69" s="25"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -3549,7 +3557,7 @@
       <c r="Y70" s="25"/>
       <c r="Z70" s="25"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -3577,7 +3585,7 @@
       <c r="Y71" s="25"/>
       <c r="Z71" s="25"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -3605,7 +3613,7 @@
       <c r="Y72" s="25"/>
       <c r="Z72" s="25"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -3633,7 +3641,7 @@
       <c r="Y73" s="25"/>
       <c r="Z73" s="25"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
@@ -3661,7 +3669,7 @@
       <c r="Y74" s="25"/>
       <c r="Z74" s="25"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
@@ -3689,7 +3697,7 @@
       <c r="Y75" s="25"/>
       <c r="Z75" s="25"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -3717,7 +3725,7 @@
       <c r="Y76" s="25"/>
       <c r="Z76" s="25"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
@@ -3745,7 +3753,7 @@
       <c r="Y77" s="25"/>
       <c r="Z77" s="25"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -3773,7 +3781,7 @@
       <c r="Y78" s="25"/>
       <c r="Z78" s="25"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -3801,7 +3809,7 @@
       <c r="Y79" s="25"/>
       <c r="Z79" s="25"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
@@ -3829,7 +3837,7 @@
       <c r="Y80" s="25"/>
       <c r="Z80" s="25"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
@@ -3857,7 +3865,7 @@
       <c r="Y81" s="25"/>
       <c r="Z81" s="25"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
@@ -3885,7 +3893,7 @@
       <c r="Y82" s="25"/>
       <c r="Z82" s="25"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -3913,7 +3921,7 @@
       <c r="Y83" s="25"/>
       <c r="Z83" s="25"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -3941,7 +3949,7 @@
       <c r="Y84" s="25"/>
       <c r="Z84" s="25"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
@@ -3969,7 +3977,7 @@
       <c r="Y85" s="25"/>
       <c r="Z85" s="25"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -3997,7 +4005,7 @@
       <c r="Y86" s="25"/>
       <c r="Z86" s="25"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
@@ -4025,7 +4033,7 @@
       <c r="Y87" s="25"/>
       <c r="Z87" s="25"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -4053,7 +4061,7 @@
       <c r="Y88" s="25"/>
       <c r="Z88" s="25"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
@@ -4081,7 +4089,7 @@
       <c r="Y89" s="25"/>
       <c r="Z89" s="25"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -4109,7 +4117,7 @@
       <c r="Y90" s="25"/>
       <c r="Z90" s="25"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
@@ -4137,7 +4145,7 @@
       <c r="Y91" s="25"/>
       <c r="Z91" s="25"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
@@ -4165,7 +4173,7 @@
       <c r="Y92" s="25"/>
       <c r="Z92" s="25"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -4193,7 +4201,7 @@
       <c r="Y93" s="25"/>
       <c r="Z93" s="25"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -4221,7 +4229,7 @@
       <c r="Y94" s="25"/>
       <c r="Z94" s="25"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -4249,7 +4257,7 @@
       <c r="Y95" s="25"/>
       <c r="Z95" s="25"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
@@ -4277,7 +4285,7 @@
       <c r="Y96" s="25"/>
       <c r="Z96" s="25"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
@@ -4305,7 +4313,7 @@
       <c r="Y97" s="25"/>
       <c r="Z97" s="25"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -4333,7 +4341,7 @@
       <c r="Y98" s="25"/>
       <c r="Z98" s="25"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
@@ -4388,42 +4396,42 @@
   </sheetPr>
   <dimension ref="A2:AE17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.73046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1328125" style="1" customWidth="1"/>
-    <col min="10" max="19" width="11.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.08984375" style="1" customWidth="1"/>
+    <col min="10" max="19" width="11.08984375" style="1" customWidth="1"/>
     <col min="20" max="21" width="12" style="1" customWidth="1"/>
-    <col min="22" max="23" width="8.86328125" style="1"/>
-    <col min="24" max="24" width="13.73046875" style="1" customWidth="1"/>
+    <col min="22" max="23" width="8.81640625" style="1"/>
+    <col min="24" max="24" width="13.7265625" style="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="68.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.86328125" style="1"/>
+    <col min="26" max="26" width="68.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:31" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="D4" s="9" t="s">
@@ -4440,7 +4448,7 @@
       <c r="AD4" s="8"/>
       <c r="AE4" s="7"/>
     </row>
-    <row r="5" spans="1:31" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>26</v>
       </c>
@@ -4529,7 +4537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="79.150000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:31" ht="78.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
         <v>19</v>
       </c>
@@ -4588,7 +4596,7 @@
       <c r="AD6" s="18"/>
       <c r="AE6" s="18"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>55</v>
       </c>
@@ -4637,7 +4645,7 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="16"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>52</v>
       </c>
@@ -4673,7 +4681,7 @@
       <c r="AD8" s="13"/>
       <c r="AE8" s="13"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -4693,7 +4701,7 @@
         <v>30</v>
       </c>
       <c r="G9" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -4751,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -4761,12 +4769,12 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:31" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:31" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>46</v>
       </c>
@@ -4796,7 +4804,7 @@
       <c r="Y12"/>
       <c r="Z12"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>45</v>
       </c>
@@ -4826,7 +4834,7 @@
       <c r="Y13"/>
       <c r="Z13"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="C14"/>
       <c r="D14" s="9" t="s">
@@ -4856,7 +4864,7 @@
       <c r="AD14" s="8"/>
       <c r="AE14" s="7"/>
     </row>
-    <row r="15" spans="1:31" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:31" ht="26" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -4931,7 +4939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -4978,7 +4986,7 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -5055,35 +5063,35 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.73046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.265625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.86328125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="8.86328125" style="1"/>
-    <col min="9" max="15" width="16.73046875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.86328125" style="1"/>
-    <col min="17" max="17" width="11.73046875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="1"/>
+    <col min="9" max="15" width="16.7265625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" style="1"/>
+    <col min="17" max="17" width="11.7265625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.86328125" style="1"/>
+    <col min="20" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="E3" s="9" t="s">
         <v>44</v>
       </c>
@@ -5097,7 +5105,7 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>26</v>
       </c>
@@ -5168,7 +5176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="79.150000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:24" ht="78.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
@@ -5223,7 +5231,7 @@
       <c r="W5" s="18"/>
       <c r="X5" s="18"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>55</v>
       </c>
@@ -5266,7 +5274,7 @@
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>82</v>
       </c>
@@ -5296,7 +5304,7 @@
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
@@ -5360,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>78</v>
       </c>
@@ -5368,7 +5376,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>78</v>
       </c>
@@ -5395,34 +5403,34 @@
   </sheetPr>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.3984375" style="1" customWidth="1"/>
-    <col min="5" max="17" width="14.265625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="8.86328125" style="1"/>
-    <col min="20" max="20" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="56.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.86328125" style="1"/>
+    <col min="2" max="2" width="57.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.36328125" style="1" customWidth="1"/>
+    <col min="5" max="17" width="14.26953125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="8.81640625" style="1"/>
+    <col min="20" max="20" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="56.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D3" s="9" t="s">
         <v>141</v>
       </c>
@@ -5436,7 +5444,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>26</v>
       </c>
@@ -5513,7 +5521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="92.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:26" ht="91.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
@@ -5576,7 +5584,7 @@
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>55</v>
       </c>
@@ -5625,7 +5633,7 @@
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>103</v>
       </c>
@@ -5657,7 +5665,7 @@
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
@@ -5726,7 +5734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>100</v>
       </c>
@@ -5793,7 +5801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -5873,39 +5881,39 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.73046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.3984375" style="1" customWidth="1"/>
-    <col min="5" max="8" width="8.86328125" style="1"/>
-    <col min="9" max="9" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.73046875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.3984375" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="8.86328125" style="1"/>
-    <col min="22" max="22" width="2.73046875" customWidth="1"/>
-    <col min="23" max="16384" width="8.86328125" style="1"/>
+    <col min="1" max="1" width="17.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.36328125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="8.81640625" style="1"/>
+    <col min="9" max="9" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.36328125" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="8.81640625" style="1"/>
+    <col min="22" max="22" width="2.7265625" customWidth="1"/>
+    <col min="23" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>124</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D3" s="9" t="s">
         <v>44</v>
       </c>
@@ -5919,7 +5927,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>26</v>
       </c>
@@ -5978,7 +5986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
@@ -6021,7 +6029,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
     </row>
-    <row r="6" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>55</v>
       </c>
@@ -6054,7 +6062,7 @@
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>117</v>
       </c>
@@ -6106,13 +6114,13 @@
         <v>3</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>115</v>
       </c>
@@ -6164,7 +6172,7 @@
         <v>3</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>112</v>
